--- a/Question_Set2/Programming skills/Gatsby.js.xlsx
+++ b/Question_Set2/Programming skills/Gatsby.js.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You want to display a page that has the path “https://domain_name/company/history/last_year.” Which of the following file structures do you need to create in order to display that page?', 'ques_type': 2, 'options': ['src/pages/company/history/last_year.js', 'src/company/history/last_year.js', 'src/templates/company/history/last_year.js', 'src/pages/last_year.js'], 'score': 'src/pages/company/history/last_year.js'}, {'title': 'You need to display a product’s dynamic image from a content management system (CMS). Which of the following pieces of code will allow you to display the image?', 'ques_type': 2, 'options': ['&amp;ltGatsbyImage image={data.product.avatar} alt={data.product.name} /&amp;gt', '&amp;ltGatsbyImage image={data.product.avatar.childImageSharp.gatsbyImageData} alt={data.product.name} /&amp;gt', '&amp;ltStaticImage image={data.product.avatar} alt={data.product.name} /&amp;gt', '&amp;ltStaticImage image={data.product.avatar.childImageSharp.gatsbyImageData} alt={data.product.name} /&amp;gt'], 'score': '&amp;ltGatsbyImage image={data.product.avatar.childImageSharp.gatsbyImageData} alt={data.product.name} /&amp;gt'}, {'title': 'You use a content management system (CMS) to obtain blog posts and need to create a page for each post. You have written the code shown below to create the pages. Which of the following path structures will each page have?  result.data.allPosts.edges.forEach(({ node }) =&amp;gt {\n     createPage({\n       path: `/${node.url}`,\n       component: path.resolve(`src/templates/post.js`),\n       context: {\n         url: node.url,\n       },\n     })\n   })', 'ques_type': 2, 'options': ['https://domain_name/allPosts/post_url', 'https://domain_name/posts/post_url', 'https://domain_name/templates/post_url', 'https://domain_name /post_url'], 'score': 'https://domain_name /post_url'}, {'title': 'True or false: “gatsby new [&amp;ltsite-name&amp;gt [&amp;ltstarter-url&amp;gt]]” can create a site from a starter.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}]</t>
+    <t>questions = [
+    {
+        "title": "You want to display a page that has the path \u201chttps://domain_name/company/history/last_year.\u201d Which of the following file structures do you need to create in order to display that page?",
+        "ques_type": 2,
+        "options": [
+            "src/pages/company/history/last_year.js",
+            "src/company/history/last_year.js",
+            "src/templates/company/history/last_year.js",
+            "src/pages/last_year.js"
+        ],
+        "score": "src/pages/company/history/last_year.js"
+    },
+    {
+        "title": "You need to display a product\u2019s dynamic image from a content management system (CMS). Which of the following pieces of code will allow you to display the image?",
+        "ques_type": 2,
+        "options": [
+            "&amp;ltGatsbyImage image={data.product.avatar} alt={data.product.name} /&amp;gt",
+            "&amp;ltGatsbyImage image={data.product.avatar.childImageSharp.gatsbyImageData} alt={data.product.name} /&amp;gt",
+            "&amp;ltStaticImage image={data.product.avatar} alt={data.product.name} /&amp;gt",
+            "&amp;ltStaticImage image={data.product.avatar.childImageSharp.gatsbyImageData} alt={data.product.name} /&amp;gt"
+        ],
+        "score": "&amp;ltGatsbyImage image={data.product.avatar.childImageSharp.gatsbyImageData} alt={data.product.name} /&amp;gt"
+    },
+    {
+        "title": "You use a content management system (CMS) to obtain blog posts and need to create a page for each post. You have written the code shown below to create the pages. Which of the following path structures will each page have?  result.data.allPosts.edges.forEach(({ node }) =&amp;gt {\n     createPage({\n       path: `/${node.url}`,\n       component: path.resolve(`src/templates/post.js`),\n       context: {\n         url: node.url,\n       },\n     })\n   })",
+        "ques_type": 2,
+        "options": [
+            "https://domain_name/allPosts/post_url",
+            "https://domain_name/posts/post_url",
+            "https://domain_name/templates/post_url",
+            "https://domain_name /post_url"
+        ],
+        "score": "https://domain_name /post_url"
+    },
+    {
+        "title": "True or false: \u201cgatsby new [&amp;ltsite-name&amp;gt [&amp;ltstarter-url&amp;gt]]\u201d can create a site from a starter.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
